--- a/data/SAN JACINTO.xlsx
+++ b/data/SAN JACINTO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">FORMULAS:</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <t xml:space="preserve">OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>136540016001 E.S.E. HOSPITAL LOCAL DEL MUNICIPIO DE SAN AJCINTO BOLIVAR</t>
+  </si>
+  <si>
+    <t>SAN JACINTO</t>
+  </si>
+  <si>
+    <t>VIRGILIO</t>
   </si>
 </sst>
 </file>
@@ -345,15 +354,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.17004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="11" min="6" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.3157894736842"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.6032388663968"/>
+    <col min="1" max="1" hidden="false" style="0" width="10.6032388663968" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="18.3157894736842" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="19.7085020242915" collapsed="true"/>
+    <col min="4" max="4" hidden="false" style="0" width="43.17004048583" collapsed="true"/>
+    <col min="5" max="5" hidden="false" style="0" width="18.7449392712551" collapsed="true"/>
+    <col min="6" max="11" hidden="false" style="0" width="14.7813765182186" collapsed="true"/>
+    <col min="12" max="12" hidden="false" style="0" width="30.3157894736842" collapsed="true"/>
+    <col min="13" max="13" hidden="false" style="0" width="16.9230769230769" collapsed="true"/>
+    <col min="14" max="1025" hidden="false" style="0" width="10.6032388663968" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="54" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -361,7 +370,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -435,14 +444,26 @@
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
+      <c r="H5" s="8" t="n">
+        <v>63.58695602416992</v>
+      </c>
+      <c r="I5" s="9" t="n">
+        <v>65.65217590332031</v>
+      </c>
+      <c r="J5" s="10" t="n">
+        <v>99.4565200805664</v>
+      </c>
+      <c r="K5" s="11" t="n">
+        <v>100.0</v>
+      </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
